--- a/Excel/excel/RechargeConfig.xlsx
+++ b/Excel/excel/RechargeConfig.xlsx
@@ -71,7 +71,7 @@
     <t>rType</t>
   </si>
   <si>
-    <t>icon</t>
+    <t>cenIcon</t>
   </si>
   <si>
     <t>price</t>
@@ -113,7 +113,7 @@
     <t>12:60</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_01</t>
+    <t>ui://Welfare/icon_01</t>
   </si>
   <si>
     <t>45元购买项目</t>
@@ -125,7 +125,7 @@
     <t>12:450</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_02</t>
+    <t>ui://Welfare/icon_02</t>
   </si>
   <si>
     <t>68元购买项目</t>
@@ -137,7 +137,7 @@
     <t>12:680</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_03</t>
+    <t>ui://Welfare/icon_03</t>
   </si>
   <si>
     <t>118元购买项目</t>
@@ -149,7 +149,7 @@
     <t>12:1180</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_04</t>
+    <t>ui://Welfare/icon_04</t>
   </si>
   <si>
     <t>198元购买项目</t>
@@ -161,7 +161,7 @@
     <t>12:1980</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_05</t>
+    <t>ui://Welfare/icon_05</t>
   </si>
   <si>
     <t>648元购买项目</t>
@@ -173,7 +173,7 @@
     <t>12:6480</t>
   </si>
   <si>
-    <t>ui://37_Welfare/icon_06</t>
+    <t>ui://Welfare/icon_06</t>
   </si>
 </sst>
 </file>
@@ -364,12 +364,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1203,7 +1203,7 @@
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2"/>
-    <col min="6" max="6" width="26.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="13" style="2"/>
   </cols>

--- a/Excel/excel/RechargeConfig.xlsx
+++ b/Excel/excel/RechargeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="RechargeConfig" sheetId="1" r:id="rId1"/>
@@ -364,12 +364,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
